--- a/чистый бланк/ЗАКАЗ КРЫМ 05,12,24ц-1-выезд 07,12.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 05,12,24ц-1-выезд 07,12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4BABFF-3B7C-4256-B5B8-73FC1A6A3E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142DF564-DE7E-4D51-B017-66CBBBF3E411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$147</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="219">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>АРОМАТНАЯ с/к в/у</t>
+  </si>
+  <si>
+    <t>ГРУДИНКА ПРЕМИУМ к/в с/н в/у 1/150 8шт.</t>
   </si>
 </sst>
 </file>
@@ -1864,11 +1867,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1670"/>
+  <dimension ref="A1:M1671"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J153" sqref="J153"/>
+      <pane ySplit="9" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,7 +2016,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D145,4)</f>
+        <f>RIGHT(D11:D146,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2044,7 +2047,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D146,4)</f>
+        <f>RIGHT(D12:D147,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2069,7 +2072,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D146,4)</f>
+        <f>RIGHT(D13:D147,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2093,7 +2096,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D147,4)</f>
+        <f>RIGHT(D14:D148,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2117,7 +2120,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D148,4)</f>
+        <f>RIGHT(D15:D149,4)</f>
         <v>6247</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2141,7 +2144,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f t="shared" ref="A16:A23" si="0">RIGHT(D16:D148,4)</f>
+        <f>RIGHT(D16:D149,4)</f>
         <v>6325</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2171,7 +2174,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D17:D150,4)</f>
         <v>6324</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2197,7 +2200,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D18:D151,4)</f>
         <v>6839</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2223,7 +2226,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D19:D152,4)</f>
         <v>6426</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2247,7 +2250,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D20:D153,4)</f>
         <v>4063</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2277,7 +2280,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D21:D154,4)</f>
         <v>6333</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2307,7 +2310,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D22:D155,4)</f>
         <v>4574</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2337,7 +2340,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D23:D156,4)</f>
         <v>6861</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2367,7 +2370,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D159,4)</f>
+        <f>RIGHT(D24:D160,4)</f>
         <v>6862</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2391,7 +2394,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D159,4)</f>
+        <f>RIGHT(D25:D160,4)</f>
         <v>6341</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2415,7 +2418,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D160,4)</f>
+        <f>RIGHT(D26:D161,4)</f>
         <v>6747</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2445,7 +2448,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D163,4)</f>
+        <f>RIGHT(D27:D164,4)</f>
         <v>4813</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2475,7 +2478,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D164,4)</f>
+        <f>RIGHT(D28:D165,4)</f>
         <v>6392</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2505,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D165,4)</f>
+        <f>RIGHT(D29:D166,4)</f>
         <v>6801</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2531,7 +2534,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D166,4)</f>
+        <f>RIGHT(D30:D167,4)</f>
         <v>6802</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2555,7 +2558,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D166,4)</f>
+        <f>RIGHT(D31:D167,4)</f>
         <v>5851</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2585,7 +2588,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D167,4)</f>
+        <f>RIGHT(D32:D168,4)</f>
         <v>6159</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2609,7 +2612,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D167,4)</f>
+        <f>RIGHT(D33:D168,4)</f>
         <v>6158</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2637,7 +2640,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D169,4)</f>
+        <f>RIGHT(D34:D170,4)</f>
         <v>6340</v>
       </c>
       <c r="B34" s="96" t="s">
@@ -2665,7 +2668,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D167,4)</f>
+        <f>RIGHT(D35:D168,4)</f>
         <v>6353</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2695,7 +2698,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D168,4)</f>
+        <f>RIGHT(D36:D169,4)</f>
         <v/>
       </c>
       <c r="B36" s="74" t="s">
@@ -2712,7 +2715,7 @@
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D171,4)</f>
+        <f>RIGHT(D37:D172,4)</f>
         <v>6870</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -2737,7 +2740,7 @@
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D172,4)</f>
+        <f>RIGHT(D38:D173,4)</f>
         <v>6869</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2762,7 +2765,7 @@
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D173,4)</f>
+        <f>RIGHT(D39:D174,4)</f>
         <v>6948</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -2787,7 +2790,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D174,4)</f>
+        <f>RIGHT(D40:D175,4)</f>
         <v>6955</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2812,7 +2815,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D172,4)</f>
+        <f>RIGHT(D41:D173,4)</f>
         <v>6253</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2837,7 +2840,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D171,4)</f>
+        <f>RIGHT(D42:D172,4)</f>
         <v>6602</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2862,7 +2865,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D174,4)</f>
+        <f>RIGHT(D43:D175,4)</f>
         <v>6768</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -2887,7 +2890,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D175,4)</f>
+        <f>RIGHT(D44:D176,4)</f>
         <v>6770</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -2912,7 +2915,7 @@
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D178,4)</f>
+        <f>RIGHT(D45:D179,4)</f>
         <v>6829</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -2936,7 +2939,7 @@
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D183,4)</f>
+        <f>RIGHT(D46:D184,4)</f>
         <v>6854</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -2960,7 +2963,7 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D184,4)</f>
+        <f>RIGHT(D47:D185,4)</f>
         <v>6852</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -2984,7 +2987,7 @@
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D185,4)</f>
+        <f>RIGHT(D48:D186,4)</f>
         <v>6759</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3008,7 +3011,7 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D186,4)</f>
+        <f>RIGHT(D49:D187,4)</f>
         <v>6901</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3034,7 +3037,7 @@
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
-        <f>RIGHT(D50:D185,4)</f>
+        <f>RIGHT(D50:D186,4)</f>
         <v>6303</v>
       </c>
       <c r="B50" s="70" t="s">
@@ -3065,7 +3068,7 @@
     </row>
     <row r="51" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D186,4)</f>
+        <f>RIGHT(D51:D187,4)</f>
         <v>6777</v>
       </c>
       <c r="B51" s="70" t="s">
@@ -3090,7 +3093,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D186,4)</f>
+        <f>RIGHT(D52:D187,4)</f>
         <v>6726</v>
       </c>
       <c r="B52" s="45" t="s">
@@ -3120,7 +3123,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D187,4)</f>
+        <f>RIGHT(D53:D188,4)</f>
         <v>6762</v>
       </c>
       <c r="B53" s="45" t="s">
@@ -3146,7 +3149,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D187,4)</f>
+        <f>RIGHT(D54:D188,4)</f>
         <v>5820</v>
       </c>
       <c r="B54" s="45" t="s">
@@ -3172,7 +3175,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D188,4)</f>
+        <f>RIGHT(D55:D189,4)</f>
         <v>6951</v>
       </c>
       <c r="B55" s="45" t="s">
@@ -3196,7 +3199,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D189,4)</f>
+        <f>RIGHT(D56:D190,4)</f>
         <v>6764</v>
       </c>
       <c r="B56" s="45" t="s">
@@ -3220,7 +3223,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D191,4)</f>
+        <f>RIGHT(D57:D192,4)</f>
         <v>6761</v>
       </c>
       <c r="B57" s="45" t="s">
@@ -3244,7 +3247,7 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D192,4)</f>
+        <f>RIGHT(D58:D193,4)</f>
         <v>6767</v>
       </c>
       <c r="B58" s="45" t="s">
@@ -3268,7 +3271,7 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D192,4)</f>
+        <f>RIGHT(D59:D193,4)</f>
         <v>6765</v>
       </c>
       <c r="B59" s="45" t="s">
@@ -3292,7 +3295,7 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D193,4)</f>
+        <f>RIGHT(D60:D194,4)</f>
         <v>6909</v>
       </c>
       <c r="B60" s="45" t="s">
@@ -3318,7 +3321,7 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="str">
-        <f>RIGHT(D61:D192,4)</f>
+        <f>RIGHT(D61:D193,4)</f>
         <v>6722</v>
       </c>
       <c r="B61" s="45" t="s">
@@ -3348,7 +3351,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="str">
-        <f>RIGHT(D62:D193,4)</f>
+        <f>RIGHT(D62:D194,4)</f>
         <v>6837</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3374,7 +3377,7 @@
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D195,4)</f>
+        <f>RIGHT(D63:D196,4)</f>
         <v>6661</v>
       </c>
       <c r="B63" s="27" t="s">
@@ -3399,7 +3402,7 @@
     </row>
     <row r="64" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="94" t="str">
-        <f>RIGHT(D64:D196,4)</f>
+        <f>RIGHT(D64:D197,4)</f>
         <v>6713</v>
       </c>
       <c r="B64" s="27" t="s">
@@ -3424,7 +3427,7 @@
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="94" t="str">
-        <f>RIGHT(D65:D192,4)</f>
+        <f>RIGHT(D65:D193,4)</f>
         <v/>
       </c>
       <c r="B65" s="74" t="s">
@@ -3441,7 +3444,7 @@
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A66" s="94" t="str">
-        <f>RIGHT(D66:D193,4)</f>
+        <f>RIGHT(D66:D194,4)</f>
         <v>5698</v>
       </c>
       <c r="B66" s="46" t="s">
@@ -3471,7 +3474,7 @@
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="94" t="str">
-        <f>RIGHT(D67:D196,4)</f>
+        <f>RIGHT(D67:D197,4)</f>
         <v>6528</v>
       </c>
       <c r="B67" s="46" t="s">
@@ -3495,7 +3498,7 @@
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D197,4)</f>
+        <f>RIGHT(D68:D198,4)</f>
         <v>6653</v>
       </c>
       <c r="B68" s="46" t="s">
@@ -3521,7 +3524,7 @@
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="str">
-        <f t="shared" ref="A69:A74" si="1">RIGHT(D69:D197,4)</f>
+        <f>RIGHT(D69:D198,4)</f>
         <v>6609</v>
       </c>
       <c r="B69" s="46" t="s">
@@ -3547,7 +3550,7 @@
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D70:D199,4)</f>
         <v>6527</v>
       </c>
       <c r="B70" s="46" t="s">
@@ -3577,7 +3580,7 @@
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D71:D200,4)</f>
         <v/>
       </c>
       <c r="B71" s="74" t="s">
@@ -3594,7 +3597,7 @@
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D72:D201,4)</f>
         <v>6666</v>
       </c>
       <c r="B72" s="27" t="s">
@@ -3624,7 +3627,7 @@
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D73:D202,4)</f>
         <v>6785</v>
       </c>
       <c r="B73" s="27" t="s">
@@ -3648,7 +3651,7 @@
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D74:D203,4)</f>
         <v>6415</v>
       </c>
       <c r="B74" s="27" t="s">
@@ -3674,7 +3677,7 @@
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
-        <f>RIGHT(D75:D202,4)</f>
+        <f>RIGHT(D75:D203,4)</f>
         <v>6786</v>
       </c>
       <c r="B75" s="27" t="s">
@@ -3698,7 +3701,7 @@
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D203,4)</f>
+        <f>RIGHT(D76:D204,4)</f>
         <v>4903</v>
       </c>
       <c r="B76" s="27" t="s">
@@ -3722,7 +3725,7 @@
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D203,4)</f>
+        <f>RIGHT(D77:D204,4)</f>
         <v>6794</v>
       </c>
       <c r="B77" s="27" t="s">
@@ -3748,7 +3751,7 @@
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="94" t="str">
-        <f>RIGHT(D78:D201,4)</f>
+        <f>RIGHT(D78:D202,4)</f>
         <v>6773</v>
       </c>
       <c r="B78" s="27" t="s">
@@ -3778,7 +3781,7 @@
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="94" t="str">
-        <f>RIGHT(D79:D204,4)</f>
+        <f>RIGHT(D79:D205,4)</f>
         <v/>
       </c>
       <c r="B79" s="74" t="s">
@@ -3795,7 +3798,7 @@
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="94" t="str">
-        <f>RIGHT(D80:D205,4)</f>
+        <f>RIGHT(D80:D206,4)</f>
         <v>6683</v>
       </c>
       <c r="B80" s="27" t="s">
@@ -3825,7 +3828,7 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="94" t="str">
-        <f>RIGHT(D81:D207,4)</f>
+        <f>RIGHT(D81:D208,4)</f>
         <v>6793</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -3849,7 +3852,7 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="94" t="str">
-        <f>RIGHT(D82:D208,4)</f>
+        <f>RIGHT(D82:D209,4)</f>
         <v>6795</v>
       </c>
       <c r="B82" s="27" t="s">
@@ -3873,7 +3876,7 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="94" t="str">
-        <f>RIGHT(D83:D208,4)</f>
+        <f>RIGHT(D83:D209,4)</f>
         <v>6807</v>
       </c>
       <c r="B83" s="27" t="s">
@@ -3897,7 +3900,7 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="94" t="str">
-        <f>RIGHT(D84:D208,4)</f>
+        <f>RIGHT(D84:D209,4)</f>
         <v>6684</v>
       </c>
       <c r="B84" s="27" t="s">
@@ -3927,7 +3930,7 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="str">
-        <f>RIGHT(D85:D210,4)</f>
+        <f>RIGHT(D85:D211,4)</f>
         <v>6787</v>
       </c>
       <c r="B85" s="27" t="s">
@@ -3951,7 +3954,7 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
-        <f>RIGHT(D86:D211,4)</f>
+        <f>RIGHT(D86:D212,4)</f>
         <v>6788</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -3975,7 +3978,7 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
-        <f>RIGHT(D87:D212,4)</f>
+        <f>RIGHT(D87:D213,4)</f>
         <v>6790</v>
       </c>
       <c r="B87" s="27" t="s">
@@ -3999,7 +4002,7 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
-        <f>RIGHT(D88:D211,4)</f>
+        <f>RIGHT(D88:D212,4)</f>
         <v>6689</v>
       </c>
       <c r="B88" s="64" t="s">
@@ -4029,7 +4032,7 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="str">
-        <f>RIGHT(D89:D212,4)</f>
+        <f>RIGHT(D89:D213,4)</f>
         <v>6791</v>
       </c>
       <c r="B89" s="64" t="s">
@@ -4053,7 +4056,7 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="str">
-        <f>RIGHT(D90:D213,4)</f>
+        <f>RIGHT(D90:D214,4)</f>
         <v>5341</v>
       </c>
       <c r="B90" s="64" t="s">
@@ -4083,7 +4086,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
-        <f>RIGHT(D91:D214,4)</f>
+        <f>RIGHT(D91:D215,4)</f>
         <v>6459</v>
       </c>
       <c r="B91" s="64" t="s">
@@ -4109,7 +4112,7 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="str">
-        <f>RIGHT(D92:D215,4)</f>
+        <f>RIGHT(D92:D216,4)</f>
         <v>6586</v>
       </c>
       <c r="B92" s="64" t="s">
@@ -4133,7 +4136,7 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="94" t="str">
-        <f>RIGHT(D93:D213,4)</f>
+        <f>RIGHT(D93:D214,4)</f>
         <v>6228</v>
       </c>
       <c r="B93" s="64" t="s">
@@ -4157,7 +4160,7 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94" t="str">
-        <f>RIGHT(D94:D213,4)</f>
+        <f>RIGHT(D94:D214,4)</f>
         <v>5544</v>
       </c>
       <c r="B94" s="27" t="s">
@@ -4187,7 +4190,7 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="94" t="str">
-        <f t="shared" ref="A95:A100" si="2">RIGHT(D95:D215,4)</f>
+        <f>RIGHT(D95:D216,4)</f>
         <v>6697</v>
       </c>
       <c r="B95" s="27" t="s">
@@ -4217,7 +4220,7 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D96:D217,4)</f>
         <v/>
       </c>
       <c r="B96" s="74" t="s">
@@ -4234,7 +4237,7 @@
     </row>
     <row r="97" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A97" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D97:D218,4)</f>
         <v>5706</v>
       </c>
       <c r="B97" s="27" t="s">
@@ -4264,7 +4267,7 @@
     </row>
     <row r="98" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D98:D219,4)</f>
         <v>6454</v>
       </c>
       <c r="B98" s="27" t="s">
@@ -4294,7 +4297,7 @@
     </row>
     <row r="99" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D99:D220,4)</f>
         <v>6222</v>
       </c>
       <c r="B99" s="27" t="s">
@@ -4318,7 +4321,7 @@
     </row>
     <row r="100" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D100:D221,4)</f>
         <v>5931</v>
       </c>
       <c r="B100" s="27" t="s">
@@ -4348,7 +4351,7 @@
     </row>
     <row r="101" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="94" t="str">
-        <f>RIGHT(D101:D222,4)</f>
+        <f>RIGHT(D101:D223,4)</f>
         <v>5708</v>
       </c>
       <c r="B101" s="27" t="s">
@@ -4378,7 +4381,7 @@
     </row>
     <row r="102" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="94" t="str">
-        <f>RIGHT(D102:D223,4)</f>
+        <f>RIGHT(D102:D224,4)</f>
         <v>1146</v>
       </c>
       <c r="B102" s="27" t="s">
@@ -4403,7 +4406,7 @@
     </row>
     <row r="103" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
-        <f>RIGHT(D103:D223,4)</f>
+        <f>RIGHT(D103:D224,4)</f>
         <v>6834</v>
       </c>
       <c r="B103" s="27" t="s">
@@ -4427,7 +4430,7 @@
     </row>
     <row r="104" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="str">
-        <f>RIGHT(D104:D224,4)</f>
+        <f>RIGHT(D104:D225,4)</f>
         <v>6448</v>
       </c>
       <c r="B104" s="27" t="s">
@@ -4453,7 +4456,7 @@
     </row>
     <row r="105" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="94" t="str">
-        <f>RIGHT(D105:D225,4)</f>
+        <f>RIGHT(D105:D226,4)</f>
         <v>6221</v>
       </c>
       <c r="B105" s="27" t="s">
@@ -4479,7 +4482,7 @@
     </row>
     <row r="106" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="str">
-        <f>RIGHT(D106:D225,4)</f>
+        <f>RIGHT(D106:D226,4)</f>
         <v>5679</v>
       </c>
       <c r="B106" s="27" t="s">
@@ -4505,7 +4508,7 @@
     </row>
     <row r="107" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="94" t="str">
-        <f>RIGHT(D107:D227,4)</f>
+        <f>RIGHT(D107:D228,4)</f>
         <v>4993</v>
       </c>
       <c r="B107" s="27" t="s">
@@ -4535,7 +4538,7 @@
     </row>
     <row r="108" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="94" t="str">
-        <f>RIGHT(D108:D228,4)</f>
+        <f>RIGHT(D108:D229,4)</f>
         <v>3684</v>
       </c>
       <c r="B108" s="27" t="s">
@@ -4561,7 +4564,7 @@
     </row>
     <row r="109" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="94" t="str">
-        <f>RIGHT(D109:D228,4)</f>
+        <f>RIGHT(D109:D229,4)</f>
         <v>5682</v>
       </c>
       <c r="B109" s="27" t="s">
@@ -4591,7 +4594,7 @@
     </row>
     <row r="110" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="str">
-        <f>RIGHT(D110:D231,4)</f>
+        <f>RIGHT(D110:D232,4)</f>
         <v>4117</v>
       </c>
       <c r="B110" s="27" t="s">
@@ -4621,7 +4624,7 @@
     </row>
     <row r="111" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="94" t="str">
-        <f>RIGHT(D111:D232,4)</f>
+        <f>RIGHT(D111:D233,4)</f>
         <v>3680</v>
       </c>
       <c r="B111" s="27" t="s">
@@ -4645,7 +4648,7 @@
     </row>
     <row r="112" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="94" t="str">
-        <f>RIGHT(D112:D232,4)</f>
+        <f>RIGHT(D112:D233,4)</f>
         <v>5483</v>
       </c>
       <c r="B112" s="27" t="s">
@@ -4673,9 +4676,9 @@
       </c>
       <c r="J112" s="39"/>
     </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="94" t="str">
-        <f>RIGHT(D113:D233,4)</f>
+        <f>RIGHT(D113:D234,4)</f>
         <v>6453</v>
       </c>
       <c r="B113" s="27" t="s">
@@ -4703,9 +4706,9 @@
       </c>
       <c r="J113" s="39"/>
     </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="94" t="str">
-        <f>RIGHT(D114:D234,4)</f>
+        <f>RIGHT(D114:D235,4)</f>
         <v/>
       </c>
       <c r="B114" s="74" t="s">
@@ -4720,9 +4723,9 @@
       <c r="I114" s="74"/>
       <c r="J114" s="75"/>
     </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A115" s="94" t="str">
-        <f>RIGHT(D115:D238,4)</f>
+        <f>RIGHT(D115:D239,4)</f>
         <v>6470</v>
       </c>
       <c r="B115" s="29" t="s">
@@ -4744,9 +4747,9 @@
       <c r="I115" s="14"/>
       <c r="J115" s="39"/>
     </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="94" t="str">
-        <f>RIGHT(D116:D239,4)</f>
+        <f>RIGHT(D116:D240,4)</f>
         <v>6495</v>
       </c>
       <c r="B116" s="29" t="s">
@@ -4770,9 +4773,9 @@
       <c r="I116" s="14"/>
       <c r="J116" s="39"/>
     </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="94" t="str">
-        <f>RIGHT(D117:D239,4)</f>
+        <f>RIGHT(D117:D240,4)</f>
         <v>6866</v>
       </c>
       <c r="B117" s="29" t="s">
@@ -4794,9 +4797,9 @@
       <c r="I117" s="14"/>
       <c r="J117" s="39"/>
     </row>
-    <row r="118" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="94" t="str">
-        <f>RIGHT(D118:D236,4)</f>
+        <f>RIGHT(D118:D237,4)</f>
         <v>3215</v>
       </c>
       <c r="B118" s="27" t="s">
@@ -4824,9 +4827,9 @@
       </c>
       <c r="J118" s="39"/>
     </row>
-    <row r="119" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="94" t="str">
-        <f>RIGHT(D119:D239,4)</f>
+        <f>RIGHT(D119:D240,4)</f>
         <v/>
       </c>
       <c r="B119" s="74" t="s">
@@ -4841,9 +4844,9 @@
       <c r="I119" s="74"/>
       <c r="J119" s="75"/>
     </row>
-    <row r="120" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A120" s="94" t="str">
-        <f>RIGHT(D120:D242,4)</f>
+        <f>RIGHT(D120:D243,4)</f>
         <v>6206</v>
       </c>
       <c r="B120" s="47" t="s">
@@ -4871,9 +4874,9 @@
       </c>
       <c r="J120" s="39"/>
     </row>
-    <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="94" t="str">
-        <f>RIGHT(D121:D243,4)</f>
+        <f>RIGHT(D121:D244,4)</f>
         <v>4691</v>
       </c>
       <c r="B121" s="47" t="s">
@@ -4890,16 +4893,16 @@
         <v>0.3</v>
       </c>
       <c r="G121" s="23">
-        <f t="shared" ref="G121:G127" si="3">F121*E121</f>
+        <f t="shared" ref="G121:G128" si="0">F121*E121</f>
         <v>0</v>
       </c>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="93"/>
     </row>
-    <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="94" t="str">
-        <f>RIGHT(D122:D244,4)</f>
+        <f>RIGHT(D122:D245,4)</f>
         <v>6200</v>
       </c>
       <c r="B122" s="47" t="s">
@@ -4916,191 +4919,201 @@
         <v>0.3</v>
       </c>
       <c r="G122" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
       <c r="J122" s="93"/>
     </row>
-    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="94" t="str">
-        <f>RIGHT(D123:D245,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D123:D246,4)</f>
+        <v>6201</v>
       </c>
       <c r="B123" s="47" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="C123" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="28">
-        <v>1001080216842</v>
+        <v>1001225636201</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G123" s="23">
-        <f t="shared" si="3"/>
+        <f>F123*E123</f>
         <v>0</v>
       </c>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="93"/>
-    </row>
-    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K123" s="82"/>
+    </row>
+    <row r="124" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="94" t="str">
-        <f>RIGHT(D124:D245,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D124:D246,4)</f>
+        <v>6842</v>
       </c>
       <c r="B124" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C124" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23">
         <v>0.3</v>
       </c>
       <c r="G124" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="93"/>
     </row>
-    <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="94" t="str">
-        <f>RIGHT(D125:D243,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D125:D246,4)</f>
+        <v>6492</v>
       </c>
       <c r="B125" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C125" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G125" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="93"/>
     </row>
-    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="94" t="str">
         <f>RIGHT(D126:D244,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B126" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C126" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G126" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
       <c r="J126" s="93"/>
     </row>
-    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="94" t="str">
         <f>RIGHT(D127:D245,4)</f>
-        <v>6921</v>
-      </c>
-      <c r="B127" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C127" s="33" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B127" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="28">
-        <v>1001223296921</v>
+        <v>1001053944786</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G127" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
-      <c r="J127" s="39"/>
-    </row>
-    <row r="128" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J127" s="93"/>
+    </row>
+    <row r="128" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="94" t="str">
-        <f>RIGHT(D128:D243,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B128" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C128" s="35" t="s">
+        <f>RIGHT(D128:D246,4)</f>
+        <v>6921</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C128" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1001223296919</v>
+        <v>1001223296921</v>
       </c>
       <c r="E128" s="24"/>
-      <c r="F128" s="23"/>
+      <c r="F128" s="23">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="G128" s="23">
-        <f>E128*0.18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
-      <c r="J128" s="93"/>
-    </row>
-    <row r="129" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J128" s="39"/>
+    </row>
+    <row r="129" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="94" t="str">
         <f>RIGHT(D129:D244,4)</f>
-        <v/>
-      </c>
-      <c r="B129" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C129" s="74"/>
-      <c r="D129" s="74"/>
-      <c r="E129" s="74"/>
-      <c r="F129" s="73"/>
-      <c r="G129" s="74"/>
-      <c r="H129" s="74"/>
-      <c r="I129" s="74"/>
-      <c r="J129" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B129" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E129" s="24"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23">
+        <f>E129*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="93"/>
     </row>
     <row r="130" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="94" t="str">
-        <f>RIGHT(D130:D247,4)</f>
+        <f>RIGHT(D130:D245,4)</f>
         <v/>
       </c>
       <c r="B130" s="74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C130" s="74"/>
       <c r="D130" s="74"/>
@@ -5111,73 +5124,66 @@
       <c r="I130" s="74"/>
       <c r="J130" s="75"/>
     </row>
-    <row r="131" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="94" t="str">
         <f>RIGHT(D131:D248,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B131" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C131" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D131" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E131" s="24"/>
-      <c r="F131" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G131" s="23">
-        <f>E131*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H131" s="14">
-        <v>8</v>
-      </c>
-      <c r="I131" s="72">
-        <v>120</v>
-      </c>
-      <c r="J131" s="39"/>
-    </row>
-    <row r="132" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B131" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C131" s="74"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="73"/>
+      <c r="G131" s="74"/>
+      <c r="H131" s="74"/>
+      <c r="I131" s="74"/>
+      <c r="J131" s="75"/>
+    </row>
+    <row r="132" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A132" s="94" t="str">
         <f>RIGHT(D132:D249,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B132" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D132" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E132" s="24"/>
-      <c r="F132" s="23"/>
+      <c r="F132" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G132" s="23">
-        <f>E132*0.45</f>
+        <f>E132*0.5</f>
         <v>0</v>
       </c>
-      <c r="H132" s="14"/>
-      <c r="I132" s="72"/>
+      <c r="H132" s="14">
+        <v>8</v>
+      </c>
+      <c r="I132" s="72">
+        <v>120</v>
+      </c>
       <c r="J132" s="39"/>
     </row>
     <row r="133" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="94" t="str">
         <f>RIGHT(D133:D250,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B133" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D133" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="23"/>
@@ -5189,174 +5195,168 @@
       <c r="I133" s="72"/>
       <c r="J133" s="39"/>
     </row>
-    <row r="134" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="94" t="str">
-        <f t="shared" ref="A134:A145" si="4">RIGHT(D134:D249,4)</f>
+        <f>RIGHT(D134:D251,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E134" s="24"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23">
+        <f>E134*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H134" s="14"/>
+      <c r="I134" s="72"/>
+      <c r="J134" s="39"/>
+    </row>
+    <row r="135" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="94" t="str">
+        <f t="shared" ref="A135:A146" si="1">RIGHT(D135:D250,4)</f>
         <v>6313</v>
       </c>
-      <c r="B134" s="47" t="s">
+      <c r="B135" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C135" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D134" s="28">
+      <c r="D135" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="23">
+      <c r="E135" s="24"/>
+      <c r="F135" s="23">
         <v>0.9</v>
       </c>
-      <c r="G134" s="23">
-        <f>E134*0.9</f>
+      <c r="G135" s="23">
+        <f>E135*0.9</f>
         <v>0</v>
       </c>
-      <c r="H134" s="14">
+      <c r="H135" s="14">
         <v>9</v>
       </c>
-      <c r="I134" s="72">
+      <c r="I135" s="72">
         <v>120</v>
       </c>
-      <c r="J134" s="39"/>
-    </row>
-    <row r="135" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="94" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B135" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="C135" s="74"/>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="74"/>
-      <c r="I135" s="74"/>
-      <c r="J135" s="75"/>
+      <c r="J135" s="39"/>
     </row>
     <row r="136" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="94" t="str">
-        <f t="shared" si="4"/>
-        <v>4945</v>
-      </c>
-      <c r="B136" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C136" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E136" s="24"/>
-      <c r="F136" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G136" s="23">
-        <f>E136*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H136" s="14">
-        <v>8</v>
-      </c>
-      <c r="I136" s="72">
-        <v>120</v>
-      </c>
-      <c r="J136" s="39"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B136" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C136" s="74"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="74"/>
+      <c r="H136" s="74"/>
+      <c r="I136" s="74"/>
+      <c r="J136" s="75"/>
     </row>
     <row r="137" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>4945</v>
+      </c>
+      <c r="B137" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G137" s="23">
+        <f>E137*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H137" s="14">
+        <v>8</v>
+      </c>
+      <c r="I137" s="72">
+        <v>120</v>
+      </c>
+      <c r="J137" s="39"/>
+    </row>
+    <row r="138" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="94" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B137" s="74" t="s">
+      <c r="B138" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="74"/>
-      <c r="H137" s="74"/>
-      <c r="I137" s="74"/>
-      <c r="J137" s="75"/>
-    </row>
-    <row r="138" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="94" t="str">
-        <f t="shared" si="4"/>
+      <c r="C138" s="74"/>
+      <c r="D138" s="74"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="73"/>
+      <c r="G138" s="74"/>
+      <c r="H138" s="74"/>
+      <c r="I138" s="74"/>
+      <c r="J138" s="75"/>
+    </row>
+    <row r="139" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="94" t="str">
+        <f t="shared" si="1"/>
         <v>4956</v>
       </c>
-      <c r="B138" s="89" t="s">
+      <c r="B139" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="C138" s="90" t="s">
+      <c r="C139" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D138" s="83">
+      <c r="D139" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E138" s="84"/>
-      <c r="F138" s="85">
+      <c r="E139" s="84"/>
+      <c r="F139" s="85">
         <v>0.42</v>
       </c>
-      <c r="G138" s="85">
-        <f>E138*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H138" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I138" s="91">
-        <v>120</v>
-      </c>
-      <c r="J138" s="86"/>
-      <c r="K138" s="87"/>
-    </row>
-    <row r="139" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="94" t="str">
-        <f t="shared" si="4"/>
-        <v>1762</v>
-      </c>
-      <c r="B139" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C139" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G139" s="23">
+      <c r="G139" s="85">
         <f>E139*0.42</f>
         <v>0</v>
       </c>
-      <c r="H139" s="14">
+      <c r="H139" s="86">
         <v>4.2</v>
       </c>
-      <c r="I139" s="72">
+      <c r="I139" s="91">
         <v>120</v>
       </c>
-      <c r="J139" s="39"/>
-    </row>
-    <row r="140" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J139" s="86"/>
+      <c r="K139" s="87"/>
+    </row>
+    <row r="140" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A140" s="94" t="str">
-        <f t="shared" si="4"/>
-        <v>1764</v>
+        <f t="shared" si="1"/>
+        <v>1762</v>
       </c>
       <c r="B140" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="C140" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D140" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="23">
@@ -5374,30 +5374,43 @@
       </c>
       <c r="J140" s="39"/>
     </row>
-    <row r="141" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="94" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B141" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="C141" s="74"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="74"/>
-      <c r="F141" s="73"/>
-      <c r="G141" s="74"/>
-      <c r="H141" s="74"/>
-      <c r="I141" s="74"/>
-      <c r="J141" s="75"/>
+        <f t="shared" si="1"/>
+        <v>1764</v>
+      </c>
+      <c r="B141" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E141" s="24"/>
+      <c r="F141" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G141" s="23">
+        <f>E141*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H141" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I141" s="72">
+        <v>120</v>
+      </c>
+      <c r="J141" s="39"/>
     </row>
     <row r="142" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B142" s="74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C142" s="74"/>
       <c r="D142" s="74"/>
@@ -5410,131 +5423,138 @@
     </row>
     <row r="143" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B143" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C143" s="74"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="74"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="74"/>
+      <c r="H143" s="74"/>
+      <c r="I143" s="74"/>
+      <c r="J143" s="75"/>
+    </row>
+    <row r="144" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="94" t="str">
+        <f t="shared" si="1"/>
         <v>6004</v>
       </c>
-      <c r="B143" s="47" t="s">
+      <c r="B144" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C144" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D143" s="68" t="s">
+      <c r="D144" s="68" t="s">
         <v>157</v>
-      </c>
-      <c r="E143" s="24"/>
-      <c r="F143" s="23">
-        <v>1</v>
-      </c>
-      <c r="G143" s="23">
-        <f>E143*1</f>
-        <v>0</v>
-      </c>
-      <c r="H143" s="14">
-        <v>8</v>
-      </c>
-      <c r="I143" s="72">
-        <v>120</v>
-      </c>
-      <c r="J143" s="39"/>
-    </row>
-    <row r="144" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="94" t="str">
-        <f t="shared" si="4"/>
-        <v>5417</v>
-      </c>
-      <c r="B144" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="C144" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D144" s="68" t="s">
-        <v>159</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144" s="23">
         <f>E144*1</f>
         <v>0</v>
       </c>
       <c r="H144" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I144" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J144" s="39"/>
     </row>
-    <row r="145" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A145" s="94" t="str">
-        <f t="shared" si="4"/>
-        <v>6019</v>
+        <f t="shared" si="1"/>
+        <v>5417</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C145" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D145" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="68" t="s">
+        <v>159</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G145" s="23">
         <f>E145*1</f>
         <v>0</v>
       </c>
       <c r="H145" s="14">
+        <v>6</v>
+      </c>
+      <c r="I145" s="72">
+        <v>90</v>
+      </c>
+      <c r="J145" s="39"/>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>6019</v>
+      </c>
+      <c r="B146" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="E146" s="24"/>
+      <c r="F146" s="23">
+        <v>1</v>
+      </c>
+      <c r="G146" s="23">
+        <f>E146*1</f>
+        <v>0</v>
+      </c>
+      <c r="H146" s="14">
         <v>12</v>
       </c>
-      <c r="I145" s="72">
+      <c r="I146" s="72">
         <v>120</v>
       </c>
-      <c r="J145" s="39"/>
-    </row>
-    <row r="146" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="77"/>
-      <c r="B146" s="77" t="s">
+      <c r="J146" s="39"/>
+    </row>
+    <row r="147" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="77"/>
+      <c r="B147" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="C146" s="16"/>
-      <c r="D146" s="48"/>
-      <c r="E146" s="17">
-        <f>SUM(E5:E145)</f>
+      <c r="C147" s="16"/>
+      <c r="D147" s="48"/>
+      <c r="E147" s="17">
+        <f>SUM(E5:E146)</f>
         <v>0</v>
       </c>
-      <c r="F146" s="17">
-        <f>SUM(F10:F145)</f>
-        <v>37.075833333333343</v>
-      </c>
-      <c r="G146" s="17">
-        <f>SUM(G11:G145)</f>
+      <c r="F147" s="17">
+        <f>SUM(F10:F146)</f>
+        <v>37.225833333333341</v>
+      </c>
+      <c r="G147" s="17">
+        <f>SUM(G11:G146)</f>
         <v>0</v>
       </c>
-      <c r="H146" s="17">
-        <f>SUM(H10:H142)</f>
+      <c r="H147" s="17">
+        <f>SUM(H10:H143)</f>
         <v>144.24999999999994</v>
       </c>
-      <c r="I146" s="17"/>
-      <c r="J146" s="17"/>
-    </row>
-    <row r="147" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="53"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="52"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="20"/>
-      <c r="J147" s="21"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+    </row>
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B148" s="53"/>
       <c r="C148" s="18"/>
       <c r="D148" s="52"/>
@@ -20764,17 +20784,27 @@
       <c r="I1670" s="20"/>
       <c r="J1670" s="21"/>
     </row>
+    <row r="1671" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1671" s="53"/>
+      <c r="C1671" s="18"/>
+      <c r="D1671" s="52"/>
+      <c r="F1671" s="19"/>
+      <c r="G1671" s="19"/>
+      <c r="H1671" s="20"/>
+      <c r="I1671" s="20"/>
+      <c r="J1671" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J146" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J147" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B139" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B140" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D143:D145" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D144:D146" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
